--- a/Constitutional symptom_v1.0.xlsx
+++ b/Constitutional symptom_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A74DA-96DF-7F46-A3B8-A634C5AE33FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05851D2D-9C2E-3C4E-8FCA-C661AC5A7812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32180" yWindow="1740" windowWidth="27380" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>orig_entry</t>
   </si>
@@ -269,6 +269,249 @@
   </si>
   <si>
     <t>Episodic fatigue</t>
+  </si>
+  <si>
+    <t>寝汗</t>
+  </si>
+  <si>
+    <t>労作後症状の増悪</t>
+  </si>
+  <si>
+    <t>壊疽</t>
+  </si>
+  <si>
+    <t>精神的健康の低下</t>
+  </si>
+  <si>
+    <t>身体機能の低下</t>
+  </si>
+  <si>
+    <t>てんかん性突然死</t>
+  </si>
+  <si>
+    <t>心臓突然死</t>
+  </si>
+  <si>
+    <t>無力症</t>
+  </si>
+  <si>
+    <t>冷え性</t>
+  </si>
+  <si>
+    <t>硬直</t>
+  </si>
+  <si>
+    <t>肝不全</t>
+  </si>
+  <si>
+    <t>再発性単発性肝炎</t>
+  </si>
+  <si>
+    <t>発作性直腸痛</t>
+  </si>
+  <si>
+    <t>肩甲骨内痛</t>
+  </si>
+  <si>
+    <t>腰痛</t>
+  </si>
+  <si>
+    <t>坐骨神経痛</t>
+  </si>
+  <si>
+    <t>突破痛</t>
+  </si>
+  <si>
+    <t>発作性腹痛</t>
+  </si>
+  <si>
+    <t>脇腹痛</t>
+  </si>
+  <si>
+    <t>腱痛</t>
+  </si>
+  <si>
+    <t>股関節痛</t>
+  </si>
+  <si>
+    <t>腹部硬直</t>
+  </si>
+  <si>
+    <t>腹部けいれん</t>
+  </si>
+  <si>
+    <t>消化不良</t>
+  </si>
+  <si>
+    <t>腹部疝痛</t>
+  </si>
+  <si>
+    <t>腹部固縮</t>
+  </si>
+  <si>
+    <t>急性腹症</t>
+  </si>
+  <si>
+    <t>骨痛</t>
+  </si>
+  <si>
+    <t>陰嚢痛</t>
+  </si>
+  <si>
+    <t>舌痛症</t>
+  </si>
+  <si>
+    <t>首の痛み</t>
+  </si>
+  <si>
+    <t>眼球運動誘発性疼痛</t>
+  </si>
+  <si>
+    <t>耳の痛み</t>
+  </si>
+  <si>
+    <t>慢性疼痛</t>
+  </si>
+  <si>
+    <t>胸膜炎性胸痛</t>
+  </si>
+  <si>
+    <t>前胸部痛</t>
+  </si>
+  <si>
+    <t>下顎痛</t>
+  </si>
+  <si>
+    <t>骨盤痛</t>
+  </si>
+  <si>
+    <t>肩の痛み</t>
+  </si>
+  <si>
+    <t>外陰部痛</t>
+  </si>
+  <si>
+    <t>膀胱痛</t>
+  </si>
+  <si>
+    <t>赤芽球痛</t>
+  </si>
+  <si>
+    <t>精巣痛</t>
+  </si>
+  <si>
+    <t>関節痛/関節炎</t>
+  </si>
+  <si>
+    <t>アロディニア</t>
+  </si>
+  <si>
+    <t>乳房痛</t>
+  </si>
+  <si>
+    <t>ウィルソン徴候</t>
+  </si>
+  <si>
+    <t>足の痛み</t>
+  </si>
+  <si>
+    <t>足指痛</t>
+  </si>
+  <si>
+    <t>足首の痛み</t>
+  </si>
+  <si>
+    <t>手首の痛み</t>
+  </si>
+  <si>
+    <t>肘の痛み</t>
+  </si>
+  <si>
+    <t>指の痛み</t>
+  </si>
+  <si>
+    <t>顎の痛み</t>
+  </si>
+  <si>
+    <t>肋軟骨痛</t>
+  </si>
+  <si>
+    <t>後頭神経痛</t>
+  </si>
+  <si>
+    <t>三叉神経痛</t>
+  </si>
+  <si>
+    <t>心窩部痛</t>
+  </si>
+  <si>
+    <t>咽頭痛</t>
+  </si>
+  <si>
+    <t>鼠径部痛</t>
+  </si>
+  <si>
+    <t>腓腹筋痛</t>
+  </si>
+  <si>
+    <t>運動誘発性筋肉痛</t>
+  </si>
+  <si>
+    <t>ほてり</t>
+  </si>
+  <si>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t>倦怠感</t>
+  </si>
+  <si>
+    <t>移乗能力の低下</t>
+  </si>
+  <si>
+    <t>入浴能力の低下</t>
+  </si>
+  <si>
+    <t>摂食能力の低下</t>
+  </si>
+  <si>
+    <t>尿失禁</t>
+  </si>
+  <si>
+    <t>ストレス性尿失禁</t>
+  </si>
+  <si>
+    <t>着替え能力の障害</t>
+  </si>
+  <si>
+    <t>排泄能力の障害</t>
+  </si>
+  <si>
+    <t>膣内の魚臭</t>
+  </si>
+  <si>
+    <t>かび臭さ</t>
+  </si>
+  <si>
+    <t>職業障害</t>
+  </si>
+  <si>
+    <t>体の痛み</t>
+  </si>
+  <si>
+    <t>胸の張り</t>
+  </si>
+  <si>
+    <t>発作性のくしゃみ</t>
+  </si>
+  <si>
+    <t>認知疲労</t>
+  </si>
+  <si>
+    <t>慢性疲労</t>
+  </si>
+  <si>
+    <t>周期性疲労</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1239,11 +1482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1253,7 +1496,7 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,19 +1504,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>30166</v>
       </c>
@@ -1283,8 +1526,11 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>30973</v>
       </c>
@@ -1294,8 +1540,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>100758</v>
       </c>
@@ -1305,8 +1554,11 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>33667</v>
       </c>
@@ -1319,8 +1571,11 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>33666</v>
       </c>
@@ -1333,8 +1588,11 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>33258</v>
       </c>
@@ -1344,8 +1602,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1645</v>
       </c>
@@ -1355,8 +1616,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>25406</v>
       </c>
@@ -1366,8 +1630,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>33850</v>
       </c>
@@ -1377,8 +1644,11 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>25145</v>
       </c>
@@ -1388,8 +1658,11 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>32142</v>
       </c>
@@ -1402,8 +1675,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>100247</v>
       </c>
@@ -1413,8 +1689,11 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>32150</v>
       </c>
@@ -1430,8 +1709,11 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>33746</v>
       </c>
@@ -1447,8 +1729,11 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3419</v>
       </c>
@@ -1464,8 +1749,11 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>11868</v>
       </c>
@@ -1481,8 +1769,11 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>32149</v>
       </c>
@@ -1498,8 +1789,11 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2574</v>
       </c>
@@ -1515,8 +1809,11 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>30157</v>
       </c>
@@ -1532,8 +1829,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>32510</v>
       </c>
@@ -1549,8 +1849,11 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>30838</v>
       </c>
@@ -1566,8 +1869,11 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>32545</v>
       </c>
@@ -1583,8 +1889,11 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>32155</v>
       </c>
@@ -1600,8 +1909,11 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>410281</v>
       </c>
@@ -1617,8 +1929,11 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>11848</v>
       </c>
@@ -1634,8 +1949,11 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>32546</v>
       </c>
@@ -1651,8 +1969,11 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>33400</v>
       </c>
@@ -1668,8 +1989,11 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2653</v>
       </c>
@@ -1685,8 +2009,11 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>30155</v>
       </c>
@@ -1702,8 +2029,11 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30811</v>
       </c>
@@ -1719,8 +2049,11 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>30833</v>
       </c>
@@ -1736,8 +2069,11 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>30857</v>
       </c>
@@ -1753,8 +2089,11 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>30766</v>
       </c>
@@ -1770,8 +2109,11 @@
       <c r="F34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>12532</v>
       </c>
@@ -1787,8 +2129,11 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>33771</v>
       </c>
@@ -1804,8 +2149,11 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>32141</v>
       </c>
@@ -1821,8 +2169,11 @@
       <c r="F37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>200025</v>
       </c>
@@ -1838,8 +2189,11 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>34267</v>
       </c>
@@ -1855,8 +2209,11 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>30834</v>
       </c>
@@ -1872,8 +2229,11 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>30943</v>
       </c>
@@ -1889,8 +2249,11 @@
       <c r="F41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>32171</v>
       </c>
@@ -1906,8 +2269,11 @@
       <c r="F42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>32147</v>
       </c>
@@ -1923,8 +2289,11 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>33839</v>
       </c>
@@ -1940,8 +2309,11 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>5059</v>
       </c>
@@ -1957,8 +2329,11 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>12533</v>
       </c>
@@ -1974,8 +2349,11 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>34265</v>
       </c>
@@ -1991,8 +2369,11 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>32102</v>
       </c>
@@ -2008,8 +2389,11 @@
       <c r="F48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>25238</v>
       </c>
@@ -2025,8 +2409,11 @@
       <c r="F49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>30841</v>
       </c>
@@ -2042,8 +2429,11 @@
       <c r="F50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>30840</v>
       </c>
@@ -2059,8 +2449,11 @@
       <c r="F51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>30836</v>
       </c>
@@ -2076,8 +2469,11 @@
       <c r="F52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>30835</v>
       </c>
@@ -2093,8 +2489,11 @@
       <c r="F53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>30837</v>
       </c>
@@ -2110,8 +2509,11 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>40264</v>
       </c>
@@ -2127,8 +2529,11 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>6649</v>
       </c>
@@ -2144,8 +2549,11 @@
       <c r="F56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>12318</v>
       </c>
@@ -2161,8 +2569,11 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>100661</v>
       </c>
@@ -2178,8 +2589,11 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>410019</v>
       </c>
@@ -2195,8 +2609,11 @@
       <c r="F59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>33050</v>
       </c>
@@ -2212,8 +2629,11 @@
       <c r="F60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>31520</v>
       </c>
@@ -2229,8 +2649,11 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>31921</v>
       </c>
@@ -2246,8 +2669,11 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>3738</v>
       </c>
@@ -2263,8 +2689,11 @@
       <c r="F63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>31217</v>
       </c>
@@ -2277,8 +2706,11 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>33675</v>
       </c>
@@ -2291,8 +2723,11 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>33834</v>
       </c>
@@ -2305,8 +2740,11 @@
       <c r="F66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>31062</v>
       </c>
@@ -2319,8 +2757,11 @@
       <c r="F67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>31059</v>
       </c>
@@ -2333,8 +2774,11 @@
       <c r="F68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>31063</v>
       </c>
@@ -2347,8 +2791,11 @@
       <c r="F69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>40183</v>
       </c>
@@ -2364,8 +2811,11 @@
       <c r="F70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>10992</v>
       </c>
@@ -2378,8 +2828,11 @@
       <c r="F71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>31060</v>
       </c>
@@ -2392,8 +2845,11 @@
       <c r="F72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>31061</v>
       </c>
@@ -2406,8 +2862,11 @@
       <c r="F73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>410022</v>
       </c>
@@ -2420,8 +2879,11 @@
       <c r="F74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>410021</v>
       </c>
@@ -2434,8 +2896,11 @@
       <c r="F75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>33695</v>
       </c>
@@ -2448,8 +2913,11 @@
       <c r="F76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>33047</v>
       </c>
@@ -2462,8 +2930,11 @@
       <c r="F77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>31352</v>
       </c>
@@ -2476,8 +2947,11 @@
       <c r="F78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>25096</v>
       </c>
@@ -2490,8 +2964,11 @@
       <c r="F79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>33236</v>
       </c>
@@ -2504,8 +2981,11 @@
       <c r="F80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>12432</v>
       </c>
@@ -2518,8 +2998,11 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>12431</v>
       </c>
@@ -2531,6 +3014,9 @@
       </c>
       <c r="F82" s="1">
         <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
